--- a/Client/wwwroot/xls/template.xlsx
+++ b/Client/wwwroot/xls/template.xlsx
@@ -5,18 +5,18 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINH TIEN DUNG\Desktop\Blazor-Excel-export-master\Blazor-Excel-export\wwwroot\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINH TIEN DUNG\source\repos\NHATKHANG\Client\wwwroot\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{07B526DF-3E5D-4725-AEE6-B22A6F59B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14A83A5E-F055-48EA-B03A-F57E92A7D5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="38700" windowHeight="15435" xr2:uid="{F9B1156C-F054-4676-A92F-9701ECF94B0E}"/>
+    <workbookView xWindow="14190" yWindow="9195" windowWidth="38700" windowHeight="15435" xr2:uid="{F9B1156C-F054-4676-A92F-9701ECF94B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="WeatherForecasts">Feuil1!$A$2:$E$3</definedName>
+    <definedName name="WeatherForecasts">Feuil1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,40 +40,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="9" uniqueCount="9">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1" uniqueCount="1">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Temp. (C°)</t>
-  </si>
-  <si>
-    <t>Temp. (F°)</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>&lt;&lt;sort desc&gt;&gt;</t>
-  </si>
-  <si>
-    <t>{{item.Date}}</t>
-  </si>
-  <si>
-    <t>{{item.TemperatureC}}</t>
-  </si>
-  <si>
-    <t>{{item.TemperatureF}}</t>
-  </si>
-  <si>
-    <t>{{item.Summary}}</t>
+    <t>{{item.VNumber}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,28 +57,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <start/>
       <end/>
@@ -110,46 +74,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,52 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E21709E-F790-46FF-86FB-AF076273DAC5}">
-  <dimension ref="B1:E3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
